--- a/融资/A轮/路石_初步法律尽职调查材料清单附件_ZLWD_20180530.xlsx
+++ b/融资/A轮/路石_初步法律尽职调查材料清单附件_ZLWD_20180530.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="19200" windowHeight="6900" tabRatio="905" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6900" tabRatio="905" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="期权清单" sheetId="9" r:id="rId1"/>
@@ -20,13 +20,18 @@
   <externalReferences>
     <externalReference r:id="rId10"/>
   </externalReferences>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="173">
   <si>
     <t>序号</t>
   </si>
@@ -655,15 +660,111 @@
     <t>杨潘</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10万股期权</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20万股期权</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京顺义融慧园</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>租赁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3年</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100平</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>王欢</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20万股</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4年</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>马久红</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10万股</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿远</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡立强</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10万股</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-409]dd/mmm/yy;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -790,6 +891,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -811,7 +920,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1098,14 +1207,14 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,33 +1222,33 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1148,7 +1257,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1156,22 +1265,22 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,18 +1289,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1222,18 +1331,29 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1244,8 +1364,20 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1383,84 +1515,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1509,11 +1563,96 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1" builtinId="30"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1895,32 +2034,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.875" customWidth="1"/>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="21.875" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:5" ht="17">
+      <c r="A1" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-    </row>
-    <row r="2" spans="1:5" ht="33">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+    </row>
+    <row r="2" spans="1:5" ht="30">
       <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
@@ -1941,37 +2080,69 @@
       <c r="A3" s="40">
         <v>1</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="B3" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="41">
         <v>3</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19"/>
+      <c r="B5" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="19"/>
+      <c r="B6" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="41">
@@ -2123,42 +2294,47 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" style="38"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="33" customWidth="1"/>
-    <col min="10" max="10" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="33" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:10" ht="17">
+      <c r="A1" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-    </row>
-    <row r="2" spans="1:10" ht="49.5">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+    </row>
+    <row r="2" spans="1:10" ht="45">
       <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
@@ -2392,35 +2568,40 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" style="38"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:4" ht="17">
+      <c r="A1" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+    </row>
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
@@ -2441,7 +2622,7 @@
       <c r="B3" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="75">
+      <c r="C3" s="49">
         <v>11</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -2455,7 +2636,7 @@
       <c r="B4" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="75">
+      <c r="C4" s="49">
         <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
@@ -2612,46 +2793,51 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
-    <col min="9" max="9" width="16.375" customWidth="1"/>
-    <col min="10" max="10" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:10" ht="17">
+      <c r="A1" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-    </row>
-    <row r="2" spans="1:10" ht="33">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+    </row>
+    <row r="2" spans="1:10" ht="30">
       <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
@@ -2687,15 +2873,33 @@
       <c r="A3" s="46">
         <v>1</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="47"/>
+      <c r="B3" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="37">
@@ -2801,40 +3005,45 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10" style="38" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="23.875" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:8" ht="17">
+      <c r="A1" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
     </row>
     <row r="2" spans="1:8" ht="39.75" customHeight="1">
       <c r="A2" s="39" t="s">
@@ -2862,15 +3071,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="13">
       <c r="A3" s="42">
         <v>1</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="50" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="51" t="s">
         <v>74</v>
       </c>
       <c r="E3" s="8"/>
@@ -2878,47 +3087,47 @@
       <c r="G3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="51" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="13">
       <c r="A4" s="42">
         <v>2</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="51" t="s">
         <v>74</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="51" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="13">
       <c r="A5" s="42">
         <v>3</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="51" t="s">
         <v>74</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="77" t="s">
+      <c r="H5" s="51" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3157,39 +3366,44 @@
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="4" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:7" ht="17">
+      <c r="A1" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55"/>
-    </row>
-    <row r="2" spans="1:7" ht="49.5">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -3219,7 +3433,7 @@
       <c r="B3" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="55" t="s">
         <v>85</v>
       </c>
       <c r="D3" s="25" t="s">
@@ -3229,7 +3443,9 @@
         <v>84</v>
       </c>
       <c r="F3" s="25"/>
-      <c r="G3" s="22"/>
+      <c r="G3" s="22" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="24.75" customHeight="1">
       <c r="A4" s="5"/>
@@ -3251,20 +3467,20 @@
     </row>
     <row r="6" spans="1:7" ht="23.25" customHeight="1" thickBot="1"/>
     <row r="7" spans="1:7" ht="69" customHeight="1" thickBot="1">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="76"/>
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1"/>
     <row r="9" spans="1:7" ht="24.75" customHeight="1"/>
     <row r="10" spans="1:7" ht="33.75" customHeight="1"/>
-    <row r="12" spans="1:7" ht="74.45" customHeight="1"/>
+    <row r="12" spans="1:7" ht="74.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
@@ -3275,83 +3491,88 @@
     <hyperlink ref="C3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31458333333333299" footer="0.31458333333333299"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="38.375" customWidth="1"/>
-    <col min="3" max="3" width="33.125" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="9" max="9" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
     </row>
     <row r="2" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5">
-      <c r="A3" s="65"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="70">
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+    </row>
+    <row r="3" spans="1:9" ht="15">
+      <c r="A3" s="83"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="88">
         <v>43160</v>
       </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="70">
+      <c r="E3" s="89"/>
+      <c r="F3" s="88">
         <v>43191</v>
       </c>
-      <c r="G3" s="71"/>
-      <c r="H3" s="70">
+      <c r="G3" s="89"/>
+      <c r="H3" s="88">
         <v>43221</v>
       </c>
-      <c r="I3" s="71"/>
+      <c r="I3" s="89"/>
     </row>
     <row r="4" spans="1:9" ht="48" customHeight="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="74"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="92"/>
       <c r="D4" s="31" t="s">
         <v>27</v>
       </c>
@@ -3371,7 +3592,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="14">
       <c r="A5" s="29" t="s">
         <v>74</v>
       </c>
@@ -3381,63 +3602,63 @@
       <c r="C5" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="82" t="s">
+      <c r="F5" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+    </row>
+    <row r="6" spans="1:9" ht="14">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+    </row>
+    <row r="7" spans="1:9" ht="14">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" thickBot="1"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+    </row>
+    <row r="8" spans="1:9" ht="13" thickBot="1"/>
     <row r="9" spans="1:9">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="79"/>
+    </row>
+    <row r="10" spans="1:9" ht="13" thickBot="1">
+      <c r="A10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3453,35 +3674,40 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" style="38"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="31.375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:4" ht="17">
+      <c r="A1" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+    </row>
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
@@ -3581,50 +3807,55 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16:V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" style="38"/>
-    <col min="2" max="2" width="14.5" style="33" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="33" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="14" style="33" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="33" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="33" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="33" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="33" customWidth="1"/>
     <col min="9" max="9" width="14" style="33" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="33" customWidth="1"/>
-    <col min="11" max="11" width="14.5" style="33" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="33" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="33" customWidth="1"/>
     <col min="12" max="13" width="16" style="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:14" ht="17">
+      <c r="A1" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-    </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="49.5">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+    </row>
+    <row r="2" spans="1:14" s="6" customFormat="1" ht="45">
       <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
@@ -3665,1263 +3896,1275 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:14" ht="15">
       <c r="A3" s="42">
         <v>1</v>
       </c>
-      <c r="B3" s="83" t="str">
+      <c r="B3" s="57" t="str">
         <f>[1]基本信息!B3</f>
         <v>李天畅</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="85" t="s">
+      <c r="F3" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="86">
+      <c r="H3" s="60">
         <v>5000</v>
       </c>
-      <c r="I3" s="86" t="s">
+      <c r="I3" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="86" t="s">
+      <c r="J3" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="K3" s="86" t="s">
+      <c r="K3" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="L3" s="86" t="s">
+      <c r="L3" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="M3" s="86" t="s">
+      <c r="M3" s="60" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:14" ht="15">
       <c r="A4" s="42">
+        <v>3</v>
+      </c>
+      <c r="B4" s="57" t="str">
+        <f>[1]基本信息!B5</f>
+        <v>徐铮</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="60">
+        <v>5000</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="33" customFormat="1" ht="15">
+      <c r="A5" s="42">
+        <v>4</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="60">
+        <v>5000</v>
+      </c>
+      <c r="I5" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15">
+      <c r="A6" s="42">
         <v>2</v>
       </c>
-      <c r="B4" s="83" t="str">
+      <c r="B6" s="57" t="str">
         <f>[1]基本信息!B4</f>
         <v>吴雪梅</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C6" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D6" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="84" t="s">
+      <c r="E6" s="61"/>
+      <c r="F6" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="85" t="s">
+      <c r="G6" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="86">
+      <c r="H6" s="60">
         <v>5000</v>
       </c>
-      <c r="I4" s="86" t="s">
+      <c r="I6" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="86" t="s">
+      <c r="J6" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K6" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="L6" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="M6" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="L4" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" s="86" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16.5">
-      <c r="A5" s="42">
-        <v>3</v>
-      </c>
-      <c r="B5" s="83" t="str">
-        <f>[1]基本信息!B5</f>
-        <v>徐铮</v>
-      </c>
-      <c r="C5" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="87" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="84" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="85" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="86">
-        <v>5000</v>
-      </c>
-      <c r="I5" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" s="86" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="33" customFormat="1" ht="16.5">
-      <c r="A6" s="42">
-        <v>4</v>
-      </c>
-      <c r="B6" s="83" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="84" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" s="85" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" s="86">
-        <v>5000</v>
-      </c>
-      <c r="I6" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" s="86" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="16.5">
+    </row>
+    <row r="7" spans="1:14" ht="15">
       <c r="A7" s="42">
         <v>5</v>
       </c>
-      <c r="B7" s="83" t="str">
+      <c r="B7" s="57" t="str">
         <f>[1]基本信息!B6</f>
         <v>马久红</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="84" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="G7" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="86">
+      <c r="H7" s="60">
         <v>7000</v>
       </c>
-      <c r="I7" s="86" t="s">
+      <c r="I7" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="J7" s="86" t="s">
+      <c r="J7" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="86" t="s">
+      <c r="K7" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="L7" s="86" t="s">
+      <c r="L7" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="M7" s="86" t="s">
+      <c r="M7" s="60" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="16.5">
+      <c r="N7" s="93" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15">
       <c r="A8" s="42">
         <v>6</v>
       </c>
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="87"/>
-      <c r="F8" s="84" t="s">
+      <c r="E8" s="61"/>
+      <c r="F8" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="85" t="s">
+      <c r="G8" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="86">
+      <c r="H8" s="60">
         <v>6000</v>
       </c>
-      <c r="I8" s="86" t="s">
+      <c r="I8" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="86" t="s">
+      <c r="J8" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="K8" s="86" t="s">
+      <c r="K8" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="L8" s="86" t="s">
+      <c r="L8" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="M8" s="86" t="s">
+      <c r="M8" s="60" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:14" ht="15">
       <c r="A9" s="42">
         <v>7</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84" t="s">
+      <c r="E9" s="58"/>
+      <c r="F9" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="85" t="s">
+      <c r="G9" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="H9" s="86">
+      <c r="H9" s="60">
         <v>6000</v>
       </c>
-      <c r="I9" s="86" t="s">
+      <c r="I9" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="J9" s="86" t="s">
+      <c r="J9" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="K9" s="86" t="s">
+      <c r="K9" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="M9" s="86" t="s">
+      <c r="M9" s="60" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:14" ht="15">
       <c r="A10" s="42">
         <v>8</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="87" t="s">
+      <c r="D10" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="84" t="s">
+      <c r="E10" s="61"/>
+      <c r="F10" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="85" t="s">
+      <c r="G10" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="H10" s="86">
+      <c r="H10" s="60">
         <v>6000</v>
       </c>
-      <c r="I10" s="86" t="s">
+      <c r="I10" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="J10" s="86" t="s">
+      <c r="J10" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="86" t="s">
+      <c r="K10" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="L10" s="86" t="s">
+      <c r="L10" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="M10" s="86" t="s">
+      <c r="M10" s="60" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:14" ht="15">
       <c r="A11" s="42">
         <v>9</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="84" t="s">
+      <c r="E11" s="61"/>
+      <c r="F11" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="85" t="s">
+      <c r="G11" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="H11" s="86">
+      <c r="H11" s="60">
         <v>6000</v>
       </c>
-      <c r="I11" s="86" t="s">
+      <c r="I11" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="J11" s="86" t="s">
+      <c r="J11" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="K11" s="86" t="s">
+      <c r="K11" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="L11" s="86" t="s">
+      <c r="L11" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="M11" s="86" t="s">
+      <c r="M11" s="60" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:14" ht="15">
       <c r="A12" s="42">
         <v>10</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="87" t="s">
+      <c r="D12" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="87"/>
-      <c r="F12" s="84" t="s">
+      <c r="E12" s="61"/>
+      <c r="F12" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="G12" s="85" t="s">
+      <c r="G12" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="H12" s="86">
+      <c r="H12" s="60">
         <v>6000</v>
       </c>
-      <c r="I12" s="86" t="s">
+      <c r="I12" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="J12" s="86" t="s">
+      <c r="J12" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="K12" s="86" t="s">
+      <c r="K12" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="L12" s="86" t="s">
+      <c r="L12" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="M12" s="86" t="s">
+      <c r="M12" s="60" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:14" ht="15">
       <c r="A13" s="42">
         <v>11</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="84" t="s">
+      <c r="E13" s="61"/>
+      <c r="F13" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="85" t="s">
+      <c r="G13" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="H13" s="86">
+      <c r="H13" s="60">
         <v>6000</v>
       </c>
-      <c r="I13" s="86" t="s">
+      <c r="I13" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="J13" s="86" t="s">
+      <c r="J13" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="K13" s="86" t="s">
+      <c r="K13" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="L13" s="86" t="s">
+      <c r="L13" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="M13" s="86" t="s">
+      <c r="M13" s="60" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:14" ht="15">
       <c r="A14" s="42">
         <v>12</v>
       </c>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84" t="s">
+      <c r="E14" s="58"/>
+      <c r="F14" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="G14" s="85" t="s">
+      <c r="G14" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="H14" s="86">
+      <c r="H14" s="60">
         <v>6000</v>
       </c>
-      <c r="I14" s="86" t="s">
+      <c r="I14" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="J14" s="86" t="s">
+      <c r="J14" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="K14" s="86" t="s">
+      <c r="K14" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="L14" s="86" t="s">
+      <c r="L14" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="M14" s="86" t="s">
+      <c r="M14" s="60" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:14" ht="15">
       <c r="A15" s="42">
         <v>13</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="87" t="s">
+      <c r="D15" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84" t="s">
+      <c r="E15" s="58"/>
+      <c r="F15" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="G15" s="85" t="s">
+      <c r="G15" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="H15" s="86">
+      <c r="H15" s="60">
         <v>6000</v>
       </c>
-      <c r="I15" s="86" t="s">
+      <c r="I15" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="J15" s="86" t="s">
+      <c r="J15" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="K15" s="86" t="s">
+      <c r="K15" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="L15" s="86" t="s">
+      <c r="L15" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="M15" s="86" t="s">
+      <c r="M15" s="60" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:14" ht="15">
       <c r="A16" s="42">
         <v>14</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="87" t="s">
+      <c r="D16" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84" t="s">
+      <c r="E16" s="58"/>
+      <c r="F16" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="85" t="s">
+      <c r="G16" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="86">
+      <c r="H16" s="60">
         <v>6000</v>
       </c>
-      <c r="I16" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="J16" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="K16" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="L16" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="M16" s="86" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="16.5">
+      <c r="I16" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="K16" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="L16" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" s="60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15">
       <c r="A17" s="42">
         <v>15</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="87" t="s">
+      <c r="D17" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84" t="s">
+      <c r="E17" s="58"/>
+      <c r="F17" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="G17" s="85" t="s">
+      <c r="G17" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="86">
+      <c r="H17" s="60">
         <v>6000</v>
       </c>
-      <c r="I17" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="J17" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="K17" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="L17" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="M17" s="86" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="16.5">
+      <c r="I17" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="K17" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="L17" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="M17" s="60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15">
       <c r="A18" s="42">
         <v>16</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="84" t="s">
+      <c r="C18" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="87" t="s">
+      <c r="D18" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84" t="s">
+      <c r="E18" s="58"/>
+      <c r="F18" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="G18" s="85" t="s">
+      <c r="G18" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="86">
+      <c r="H18" s="60">
         <v>6000</v>
       </c>
-      <c r="I18" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="J18" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="K18" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="L18" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="M18" s="86" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="16.5">
+      <c r="I18" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="J18" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="L18" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="M18" s="60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15">
       <c r="A19" s="42">
         <v>17</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="84" t="s">
+      <c r="C19" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="87" t="s">
+      <c r="D19" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84" t="s">
+      <c r="E19" s="58"/>
+      <c r="F19" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="85" t="s">
+      <c r="G19" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="86">
+      <c r="H19" s="60">
         <v>6000</v>
       </c>
-      <c r="I19" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="J19" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="K19" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="L19" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="M19" s="86" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="16.5">
+      <c r="I19" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="L19" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="M19" s="60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15">
       <c r="A20" s="42">
         <v>18</v>
       </c>
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="84" t="s">
+      <c r="C20" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="87" t="s">
+      <c r="D20" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84" t="s">
+      <c r="E20" s="58"/>
+      <c r="F20" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="G20" s="85" t="s">
+      <c r="G20" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="H20" s="86">
+      <c r="H20" s="60">
         <v>6000</v>
       </c>
-      <c r="I20" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="J20" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="K20" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="L20" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="M20" s="86" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="16.5">
+      <c r="I20" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="J20" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15">
       <c r="A21" s="42">
         <v>19</v>
       </c>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="84" t="s">
+      <c r="C21" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="84" t="s">
+      <c r="D21" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84" t="s">
+      <c r="E21" s="58"/>
+      <c r="F21" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="85" t="s">
+      <c r="G21" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="H21" s="86">
+      <c r="H21" s="60">
         <v>7000</v>
       </c>
-      <c r="I21" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="J21" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="K21" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="L21" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="M21" s="86" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="16.5">
+      <c r="I21" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="J21" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="L21" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="M21" s="60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15">
       <c r="A22" s="42">
         <v>20</v>
       </c>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="84" t="s">
+      <c r="D22" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84" t="s">
+      <c r="E22" s="58"/>
+      <c r="F22" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="G22" s="85" t="s">
+      <c r="G22" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="H22" s="86">
+      <c r="H22" s="60">
         <v>8000</v>
       </c>
-      <c r="I22" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="J22" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="K22" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="L22" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="M22" s="86" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="16.5">
+      <c r="I22" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="J22" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="M22" s="60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15">
       <c r="A23" s="42">
         <v>21</v>
       </c>
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="84" t="s">
+      <c r="D23" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84" t="s">
+      <c r="E23" s="58"/>
+      <c r="F23" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="85" t="s">
+      <c r="G23" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="H23" s="86">
+      <c r="H23" s="60">
         <v>6000</v>
       </c>
-      <c r="I23" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="J23" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="K23" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="L23" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="M23" s="86" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="16.5">
+      <c r="I23" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="J23" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="K23" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="L23" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="M23" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="N23" s="93" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15">
       <c r="A24" s="42">
         <v>22</v>
       </c>
-      <c r="B24" s="92" t="s">
+      <c r="B24" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="84" t="s">
+      <c r="D24" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84" t="s">
+      <c r="E24" s="58"/>
+      <c r="F24" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="G24" s="85" t="s">
+      <c r="G24" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="H24" s="86">
+      <c r="H24" s="60">
         <v>6000</v>
       </c>
-      <c r="I24" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="J24" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="K24" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="L24" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="M24" s="86" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="16.5">
+      <c r="I24" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="J24" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="K24" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="L24" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="M24" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="N24" s="93" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15">
       <c r="A25" s="42">
         <v>23</v>
       </c>
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="84" t="s">
+      <c r="C25" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="84" t="s">
+      <c r="D25" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84" t="s">
+      <c r="E25" s="58"/>
+      <c r="F25" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="G25" s="85" t="s">
+      <c r="G25" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="H25" s="86">
+      <c r="H25" s="60">
         <v>6000</v>
       </c>
-      <c r="I25" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="J25" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="K25" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="L25" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="M25" s="86" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="16.5">
+      <c r="I25" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="J25" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="K25" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="L25" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="M25" s="60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15">
       <c r="A26" s="42">
         <v>24</v>
       </c>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="84" t="s">
+      <c r="C26" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="87" t="s">
+      <c r="D26" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84" t="s">
+      <c r="E26" s="58"/>
+      <c r="F26" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="G26" s="85" t="s">
+      <c r="G26" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="H26" s="86">
+      <c r="H26" s="60">
         <v>6000</v>
       </c>
-      <c r="I26" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="J26" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="K26" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="L26" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="M26" s="86" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="16.5">
+      <c r="I26" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="J26" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="K26" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="L26" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="M26" s="60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15">
       <c r="A27" s="42">
         <v>25</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="84" t="s">
+      <c r="C27" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D27" s="87" t="s">
+      <c r="D27" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84" t="s">
+      <c r="E27" s="58"/>
+      <c r="F27" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="G27" s="85" t="s">
+      <c r="G27" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="H27" s="86">
+      <c r="H27" s="60">
         <v>6000</v>
       </c>
-      <c r="I27" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="J27" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="K27" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="L27" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="M27" s="86" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="16.5">
+      <c r="I27" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="J27" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="K27" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="L27" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="M27" s="60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15">
       <c r="A28" s="42">
         <v>26</v>
       </c>
-      <c r="B28" s="89" t="s">
+      <c r="B28" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="84" t="s">
+      <c r="C28" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="87" t="s">
+      <c r="D28" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84" t="s">
+      <c r="E28" s="58"/>
+      <c r="F28" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="G28" s="85" t="s">
+      <c r="G28" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="H28" s="86">
+      <c r="H28" s="60">
         <v>6000</v>
       </c>
-      <c r="I28" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="J28" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="K28" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="L28" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="M28" s="86" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="16.5">
+      <c r="I28" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="J28" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="K28" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="L28" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="M28" s="60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15">
       <c r="A29" s="42">
         <v>27</v>
       </c>
-      <c r="B29" s="89" t="s">
+      <c r="B29" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="84" t="s">
+      <c r="C29" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="87" t="s">
+      <c r="D29" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84" t="s">
+      <c r="E29" s="58"/>
+      <c r="F29" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="G29" s="85" t="s">
+      <c r="G29" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="H29" s="86">
+      <c r="H29" s="60">
         <v>6000</v>
       </c>
-      <c r="I29" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="J29" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="K29" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="L29" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="M29" s="86" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="16.5">
+      <c r="I29" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="J29" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="K29" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="L29" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="M29" s="60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15">
       <c r="A30" s="42">
         <v>28</v>
       </c>
-      <c r="B30" s="89" t="s">
+      <c r="B30" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="84" t="s">
+      <c r="C30" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="84" t="s">
+      <c r="D30" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="E30" s="84" t="s">
+      <c r="E30" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="F30" s="84" t="s">
+      <c r="F30" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="G30" s="85" t="s">
+      <c r="G30" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="H30" s="86">
+      <c r="H30" s="60">
         <v>35000</v>
       </c>
-      <c r="I30" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="J30" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="K30" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="L30" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="M30" s="86" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="16.5">
+      <c r="I30" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="J30" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="K30" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="L30" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="M30" s="60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15">
       <c r="A31" s="42">
         <v>29</v>
       </c>
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="84" t="s">
+      <c r="D31" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84" t="s">
+      <c r="E31" s="58"/>
+      <c r="F31" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="G31" s="85" t="s">
+      <c r="G31" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="86">
+      <c r="H31" s="60">
         <v>18000</v>
       </c>
-      <c r="I31" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="J31" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="K31" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="L31" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="M31" s="86" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="16.5">
+      <c r="I31" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="J31" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="K31" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="L31" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="M31" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="N31" s="93" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15">
       <c r="A32" s="42">
         <v>30</v>
       </c>
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="84" t="s">
+      <c r="C32" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="84" t="s">
+      <c r="D32" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84" t="s">
+      <c r="E32" s="58"/>
+      <c r="F32" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="G32" s="85" t="s">
+      <c r="G32" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="H32" s="86">
+      <c r="H32" s="60">
         <v>5000</v>
       </c>
-      <c r="I32" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="J32" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="K32" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="L32" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="M32" s="86" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="16.5">
+      <c r="I32" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="J32" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="K32" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="L32" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="M32" s="60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15">
       <c r="A33" s="42">
         <v>31</v>
       </c>
-      <c r="B33" s="89" t="s">
+      <c r="B33" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="C33" s="84" t="s">
+      <c r="C33" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="84" t="s">
+      <c r="D33" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84" t="s">
+      <c r="E33" s="58"/>
+      <c r="F33" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="G33" s="85" t="s">
+      <c r="G33" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="H33" s="86">
+      <c r="H33" s="60">
         <v>5000</v>
       </c>
-      <c r="I33" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="J33" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="K33" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="L33" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="M33" s="86" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="16.5">
+      <c r="I33" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="J33" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="K33" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="L33" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="M33" s="60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15">
       <c r="A34" s="42">
         <v>32</v>
       </c>
-      <c r="B34" s="89" t="s">
+      <c r="B34" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="C34" s="84" t="s">
+      <c r="C34" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="84" t="s">
+      <c r="D34" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84" t="s">
+      <c r="E34" s="58"/>
+      <c r="F34" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="G34" s="85" t="s">
+      <c r="G34" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="H34" s="86">
+      <c r="H34" s="60">
         <v>5000</v>
       </c>
-      <c r="I34" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="J34" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="K34" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="L34" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="M34" s="86" t="s">
+      <c r="I34" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="J34" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="K34" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="L34" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="M34" s="60" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5080,6 +5323,11 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>